--- a/Tidsplan(start).xlsx
+++ b/Tidsplan(start).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16589563a1778640/Dokumenter/GitHub/Modbus-wireless/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{EA0FB765-7327-427B-A58A-15393AEF43C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB9B74A-1C5B-4FDE-A5A4-6224A71E38EE}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{EA0FB765-7327-427B-A58A-15393AEF43C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5267A7EA-22C2-45EA-9F10-5E0ABF6BC9D5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF31404-1682-464B-A973-190E4CAB33C0}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>dip SW</t>
   </si>
   <si>
-    <t>Forside</t>
-  </si>
-  <si>
     <t>Problemformulering</t>
   </si>
   <si>
@@ -465,6 +462,9 @@
   </si>
   <si>
     <t>Uge40</t>
+  </si>
+  <si>
+    <t>programering</t>
   </si>
 </sst>
 </file>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E356E727-5468-4FB6-81C8-32361E5118C1}">
   <dimension ref="A1:BT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1311,7 +1311,7 @@
       <c r="F1"/>
       <c r="G1" s="8"/>
       <c r="H1" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
@@ -1319,7 +1319,7 @@
       <c r="L1" s="23"/>
       <c r="M1" s="6"/>
       <c r="N1" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
@@ -1327,13 +1327,13 @@
       <c r="R1" s="23"/>
       <c r="S1" s="10"/>
       <c r="T1" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U1" s="24"/>
       <c r="V1" s="24"/>
       <c r="W1" s="7"/>
       <c r="X1" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y1" s="24"/>
       <c r="Z1" s="24"/>
@@ -1342,7 +1342,7 @@
       <c r="AC1" s="24"/>
       <c r="AD1" s="9"/>
       <c r="AE1" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF1" s="24"/>
       <c r="AG1" s="24"/>
@@ -1361,55 +1361,55 @@
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" t="s">
         <v>113</v>
       </c>
-      <c r="I2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y2" t="s">
         <v>114</v>
       </c>
-      <c r="U2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>116</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>117</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>118</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" t="s">
         <v>119</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AW2" t="s">
         <v>120</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>121</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>122</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BI2" t="s">
         <v>123</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BM2" t="s">
         <v>124</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BQ2" t="s">
         <v>125</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -1423,211 +1423,211 @@
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="Y3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AD3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AE3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AF3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AG3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AL3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AM3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AN3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AO3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AT3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AU3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AV3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AW3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="BB3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="BB3" s="11" t="s">
+      <c r="BC3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="BC3" s="11" t="s">
+      <c r="BD3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="BD3" s="11" t="s">
+      <c r="BE3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="BI3" s="11" t="s">
+      <c r="BJ3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="BJ3" s="11" t="s">
+      <c r="BK3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="BK3" s="11" t="s">
+      <c r="BL3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="BL3" s="11" t="s">
+      <c r="BM3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="BQ3" s="11" t="s">
+      <c r="BR3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="BR3" s="11" t="s">
+      <c r="BS3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="BS3" s="11" t="s">
+      <c r="BT3" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="BT3" s="12" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -1699,7 +1699,9 @@
       <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
       <c r="D9" s="14"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1713,7 +1715,9 @@
       <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="14">
+        <v>3</v>
+      </c>
       <c r="D10" s="14"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -1725,7 +1729,9 @@
       <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="14">
+        <v>3</v>
+      </c>
       <c r="D11" s="14"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -1739,7 +1745,9 @@
       <c r="B12" s="19">
         <v>2040</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="14">
+        <v>3</v>
+      </c>
       <c r="D12" s="14"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -1751,7 +1759,9 @@
       <c r="B13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
       <c r="D13" s="14"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
@@ -1762,7 +1772,9 @@
       <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="14">
+        <v>2</v>
+      </c>
       <c r="D14" s="14"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
@@ -1773,7 +1785,9 @@
       <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
       <c r="D15" s="14"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
@@ -1784,7 +1798,9 @@
       <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
       <c r="D16" s="14"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
@@ -1795,7 +1811,9 @@
       <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="14">
+        <v>2</v>
+      </c>
       <c r="D17" s="14"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
@@ -1806,7 +1824,9 @@
       <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
       <c r="D18" s="14"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
@@ -1817,7 +1837,9 @@
       <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="14">
+        <v>2</v>
+      </c>
       <c r="D19" s="14"/>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
@@ -1828,7 +1850,9 @@
       <c r="B20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14">
+        <v>6</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
@@ -1843,7 +1867,9 @@
       <c r="B21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="14">
+        <v>2</v>
+      </c>
       <c r="D21" s="14"/>
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
@@ -1854,9 +1880,11 @@
         <v>18</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="C22" s="14">
+        <v>4</v>
+      </c>
       <c r="D22" s="14"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
@@ -1867,9 +1895,11 @@
     <row r="23" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="18"/>
       <c r="B23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="C23" s="14">
+        <v>4</v>
+      </c>
       <c r="D23" s="14"/>
       <c r="AW23" s="8"/>
       <c r="AX23" s="8"/>
@@ -1882,20 +1912,22 @@
       <c r="B24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>2</v>
+      </c>
       <c r="D24" s="14"/>
       <c r="BA24" s="8"/>
       <c r="BB24" s="8"/>
       <c r="BT24" s="5"/>
     </row>
     <row r="25" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="A25" s="21"/>
       <c r="B25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="14"/>
+        <v>127</v>
+      </c>
+      <c r="C25" s="14">
+        <v>9</v>
+      </c>
       <c r="D25" s="14"/>
       <c r="BC25" s="8"/>
       <c r="BD25" s="8"/>
@@ -1909,11 +1941,15 @@
       <c r="BT25" s="5"/>
     </row>
     <row r="26" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="18"/>
+      <c r="A26" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="B26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
       <c r="D26" s="20"/>
       <c r="E26" s="8"/>
       <c r="BT26" s="5"/>
@@ -1921,9 +1957,11 @@
     <row r="27" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="18"/>
       <c r="B27" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
       <c r="D27" s="14"/>
       <c r="G27" s="8"/>
       <c r="BT27" s="5"/>
@@ -1931,7 +1969,7 @@
     <row r="28" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="18"/>
       <c r="B28" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1942,7 +1980,9 @@
       <c r="B29" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="14">
+        <v>3</v>
+      </c>
       <c r="D29" s="14"/>
       <c r="H29" s="8"/>
       <c r="L29" s="8"/>
@@ -1952,9 +1992,11 @@
     <row r="30" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="21"/>
       <c r="B30" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="C30" s="14">
+        <v>8</v>
+      </c>
       <c r="D30" s="14"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
@@ -1969,45 +2011,55 @@
     <row r="31" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="18"/>
       <c r="B31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="14">
+        <v>1</v>
+      </c>
       <c r="D31" s="14"/>
       <c r="BL31" s="8"/>
     </row>
     <row r="32" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="18"/>
       <c r="B32" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="14">
+        <v>1</v>
+      </c>
       <c r="D32" s="14"/>
       <c r="BM32" s="8"/>
     </row>
     <row r="33" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="18"/>
       <c r="B33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="14">
+        <v>1</v>
+      </c>
       <c r="D33" s="14"/>
       <c r="BN33" s="8"/>
     </row>
     <row r="34" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="21"/>
       <c r="B34" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="C34" s="14">
+        <v>1</v>
+      </c>
       <c r="D34" s="14"/>
       <c r="BO34" s="8"/>
     </row>
     <row r="35" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="22"/>
       <c r="B35" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C35" s="14">
+        <v>5</v>
+      </c>
       <c r="D35" s="14"/>
       <c r="BP35" s="8"/>
       <c r="BQ35" s="8"/>
@@ -2024,7 +2076,7 @@
     <mergeCell ref="AE1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt ud over plan" sqref="AD1" xr:uid="{BF060330-2D57-4C2E-A2FD-080220327651}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 S1" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
